--- a/envo/document/data/list/14.xlsx
+++ b/envo/document/data/list/14.xlsx
@@ -501,12 +501,12 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
